--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21870" windowHeight="12180"/>
+    <workbookView windowHeight="17580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -47,7 +47,7 @@
     <t>booking method</t>
   </si>
   <si>
-    <t>WILSON CHIN</t>
+    <t>MAY NG</t>
   </si>
   <si>
     <t>ALVIN</t>
@@ -70,234 +70,6 @@
   <si>
     <t>CATHY</t>
   </si>
-  <si>
-    <t>LIAM BROWN</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>OLIVIA SMITH</t>
-  </si>
-  <si>
-    <t>ELLA</t>
-  </si>
-  <si>
-    <t>NOAH WILSON</t>
-  </si>
-  <si>
-    <t>FIONA</t>
-  </si>
-  <si>
-    <t>AVA JONES</t>
-  </si>
-  <si>
-    <t>GEORGE</t>
-  </si>
-  <si>
-    <t>JAMES TAYLOR</t>
-  </si>
-  <si>
-    <t>HANNAH</t>
-  </si>
-  <si>
-    <t>ISABELLA DAVIS</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>LUCAS MOORE</t>
-  </si>
-  <si>
-    <t>JANE</t>
-  </si>
-  <si>
-    <t>MIA MARTIN</t>
-  </si>
-  <si>
-    <t>KYLE</t>
-  </si>
-  <si>
-    <t>ETHAN LEE</t>
-  </si>
-  <si>
-    <t>LISA</t>
-  </si>
-  <si>
-    <t>SOPHIA CLARK</t>
-  </si>
-  <si>
-    <t>MARK</t>
-  </si>
-  <si>
-    <t>BENJAMIN WALKER</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>AMELIA HARRIS</t>
-  </si>
-  <si>
-    <t>OWEN</t>
-  </si>
-  <si>
-    <t>ELLA MARTINEZ</t>
-  </si>
-  <si>
-    <t>PAUL</t>
-  </si>
-  <si>
-    <t>JACK HILL</t>
-  </si>
-  <si>
-    <t>QUEENIE</t>
-  </si>
-  <si>
-    <t>CHARLOTTE KING</t>
-  </si>
-  <si>
-    <t>RYAN</t>
-  </si>
-  <si>
-    <t>WILLIAM ALLEN</t>
-  </si>
-  <si>
-    <t>SARA</t>
-  </si>
-  <si>
-    <t>ABIGAIL SCOTT</t>
-  </si>
-  <si>
-    <t>TOM</t>
-  </si>
-  <si>
-    <t>HENRY WRIGHT</t>
-  </si>
-  <si>
-    <t>URSULA</t>
-  </si>
-  <si>
-    <t>GRACE ADAMS</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>SEBASTIAN BAKER</t>
-  </si>
-  <si>
-    <t>WENDY</t>
-  </si>
-  <si>
-    <t>AVA CARTER</t>
-  </si>
-  <si>
-    <t>XAVIER</t>
-  </si>
-  <si>
-    <t>DAVID TURNER</t>
-  </si>
-  <si>
-    <t>YVONNE</t>
-  </si>
-  <si>
-    <t>LILY PHILLIPS</t>
-  </si>
-  <si>
-    <t>ZACHARY</t>
-  </si>
-  <si>
-    <t>DANIEL COLLINS</t>
-  </si>
-  <si>
-    <t>ALICE</t>
-  </si>
-  <si>
-    <t>NORA CAMPBELL</t>
-  </si>
-  <si>
-    <t>BRIAN</t>
-  </si>
-  <si>
-    <t>LOGAN REED</t>
-  </si>
-  <si>
-    <t>CAROL</t>
-  </si>
-  <si>
-    <t>HANNAH MITCHELL</t>
-  </si>
-  <si>
-    <t>DEREK</t>
-  </si>
-  <si>
-    <t>OLIVER ROGERS</t>
-  </si>
-  <si>
-    <t>EVE</t>
-  </si>
-  <si>
-    <t>HARPER ROBERTS</t>
-  </si>
-  <si>
-    <t>FRANK</t>
-  </si>
-  <si>
-    <t>ELIJAH PERRY</t>
-  </si>
-  <si>
-    <t>GRACE</t>
-  </si>
-  <si>
-    <t>SCARLETT RUSSELL</t>
-  </si>
-  <si>
-    <t>HENRY</t>
-  </si>
-  <si>
-    <t>MATTHEW POWELL</t>
-  </si>
-  <si>
-    <t>IRENE</t>
-  </si>
-  <si>
-    <t>ZOE ROSS</t>
-  </si>
-  <si>
-    <t>JACK</t>
-  </si>
-  <si>
-    <t>LUCAS WARD</t>
-  </si>
-  <si>
-    <t>KATE</t>
-  </si>
-  <si>
-    <t>ARIA SANDERS</t>
-  </si>
-  <si>
-    <t>LUKE</t>
-  </si>
-  <si>
-    <t>AIDEN PETERSON</t>
-  </si>
-  <si>
-    <t>MARY</t>
-  </si>
-  <si>
-    <t>MILA STEWART</t>
-  </si>
-  <si>
-    <t>NICK</t>
-  </si>
-  <si>
-    <t>LEVI COLEMAN</t>
-  </si>
-  <si>
-    <t>OLIVIA</t>
-  </si>
 </sst>
 </file>
 
@@ -473,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +254,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -667,12 +451,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -799,7 +598,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -811,129 +610,135 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1472,7 +1277,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1519,811 +1324,355 @@
         <v>1111</v>
       </c>
       <c r="E2" s="2">
-        <v>11111111</v>
-      </c>
-      <c r="F2" s="2" t="s">
+        <v>111111111</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>5098</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>1122</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>11112222</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>5129</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>1133</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>11113333</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5160</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1144</v>
-      </c>
-      <c r="E5" s="3">
-        <v>11114444</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" ht="15.75" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5191</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1155</v>
-      </c>
-      <c r="E6" s="3">
-        <v>11115555</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" ht="15.75" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3">
-        <v>5222</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1166</v>
-      </c>
-      <c r="E7" s="3">
-        <v>11116666</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" ht="15.75" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3">
-        <v>5253</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1177</v>
-      </c>
-      <c r="E8" s="3">
-        <v>11117777</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" ht="15.75" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3">
-        <v>5284</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1188</v>
-      </c>
-      <c r="E9" s="3">
-        <v>11118888</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" ht="15.75" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3">
-        <v>5315</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1199</v>
-      </c>
-      <c r="E10" s="3">
-        <v>11119999</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" ht="15.75" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3">
-        <v>5346</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1200</v>
-      </c>
-      <c r="E11" s="3">
-        <v>11221111</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" ht="15.75" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3">
-        <v>5377</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1211</v>
-      </c>
-      <c r="E12" s="3">
-        <v>11222222</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" ht="15.75" spans="1:6">
-      <c r="A13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3">
-        <v>5408</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1222</v>
-      </c>
-      <c r="E13" s="3">
-        <v>11223333</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" ht="15.75" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="3">
-        <v>5439</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1233</v>
-      </c>
-      <c r="E14" s="3">
-        <v>11224444</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" ht="15.75" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="3">
-        <v>5470</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1244</v>
-      </c>
-      <c r="E15" s="3">
-        <v>11225555</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" ht="15.75" spans="1:6">
-      <c r="A16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="3">
-        <v>5501</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1255</v>
-      </c>
-      <c r="E16" s="3">
-        <v>11226666</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" ht="15.75" spans="1:6">
-      <c r="A17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="3">
-        <v>5532</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1266</v>
-      </c>
-      <c r="E17" s="3">
-        <v>11227777</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" ht="15.75" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="3">
-        <v>5563</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1277</v>
-      </c>
-      <c r="E18" s="3">
-        <v>11228888</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" ht="15.75" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="3">
-        <v>5594</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1288</v>
-      </c>
-      <c r="E19" s="3">
-        <v>11229999</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" ht="15.75" spans="1:6">
-      <c r="A20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="3">
-        <v>5625</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1299</v>
-      </c>
-      <c r="E20" s="3">
-        <v>11331111</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" ht="15.75" spans="1:6">
-      <c r="A21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="3">
-        <v>5656</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1300</v>
-      </c>
-      <c r="E21" s="3">
-        <v>11332222</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" ht="15.75" spans="1:6">
-      <c r="A22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="3">
-        <v>5687</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1311</v>
-      </c>
-      <c r="E22" s="3">
-        <v>11333333</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" ht="15.75" spans="1:6">
-      <c r="A23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="3">
-        <v>5718</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1322</v>
-      </c>
-      <c r="E23" s="3">
-        <v>11334444</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" ht="15.75" spans="1:6">
-      <c r="A24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="3">
-        <v>5749</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1333</v>
-      </c>
-      <c r="E24" s="3">
-        <v>11335555</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" ht="15.75" spans="1:6">
-      <c r="A25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="3">
-        <v>5780</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1344</v>
-      </c>
-      <c r="E25" s="3">
-        <v>11336666</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" ht="15.75" spans="1:6">
-      <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="3">
-        <v>5811</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1355</v>
-      </c>
-      <c r="E26" s="3">
-        <v>11337777</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" ht="15.75" spans="1:6">
-      <c r="A27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="3">
-        <v>5842</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1366</v>
-      </c>
-      <c r="E27" s="3">
-        <v>11338888</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" ht="15.75" spans="1:6">
-      <c r="A28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="3">
-        <v>5873</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1377</v>
-      </c>
-      <c r="E28" s="3">
-        <v>11339999</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" ht="15.75" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="3">
-        <v>5904</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1388</v>
-      </c>
-      <c r="E29" s="3">
-        <v>11441111</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" ht="15.75" spans="1:6">
-      <c r="A30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="3">
-        <v>5935</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1399</v>
-      </c>
-      <c r="E30" s="3">
-        <v>11442222</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" ht="15.75" spans="1:6">
-      <c r="A31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="3">
-        <v>5966</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1400</v>
-      </c>
-      <c r="E31" s="3">
-        <v>11443333</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" ht="15.75" spans="1:6">
-      <c r="A32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="3">
-        <v>5997</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1411</v>
-      </c>
-      <c r="E32" s="3">
-        <v>11444444</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" ht="15.75" spans="1:6">
-      <c r="A33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="3">
-        <v>6028</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1422</v>
-      </c>
-      <c r="E33" s="3">
-        <v>11445555</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" ht="15.75" spans="1:6">
-      <c r="A34" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="3">
-        <v>6059</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1433</v>
-      </c>
-      <c r="E34" s="3">
-        <v>11446666</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" ht="15.75" spans="1:6">
-      <c r="A35" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="3">
-        <v>6090</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1444</v>
-      </c>
-      <c r="E35" s="3">
-        <v>11447777</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" ht="15.75" spans="1:6">
-      <c r="A36" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="3">
-        <v>6121</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1455</v>
-      </c>
-      <c r="E36" s="3">
-        <v>11448888</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" ht="15.75" spans="1:6">
-      <c r="A37" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="3">
-        <v>6152</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1466</v>
-      </c>
-      <c r="E37" s="3">
-        <v>11449999</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" ht="15.75" spans="1:6">
-      <c r="A38" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="3">
-        <v>6183</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1477</v>
-      </c>
-      <c r="E38" s="3">
-        <v>11551111</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" ht="15.75" spans="1:6">
-      <c r="A39" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="3">
-        <v>6214</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1488</v>
-      </c>
-      <c r="E39" s="3">
-        <v>11552222</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" ht="15.75" spans="1:6">
-      <c r="A40" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="3">
-        <v>6245</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1499</v>
-      </c>
-      <c r="E40" s="3">
-        <v>11553333</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" ht="15.75" spans="1:6">
-      <c r="A41" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="3">
-        <v>6276</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1500</v>
-      </c>
-      <c r="E41" s="3">
-        <v>11554444</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" ht="15.75" spans="1:6">
-      <c r="A42" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="3">
-        <v>6307</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1511</v>
-      </c>
-      <c r="E42" s="3">
-        <v>11555555</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
